--- a/MAPA_TEMPERATURAS.xlsx
+++ b/MAPA_TEMPERATURAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,16 +550,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>32.1</v>
+        <v>32.9</v>
       </c>
       <c r="K2" t="n">
         <v>39.554167</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>32,1</t>
+          <t>32,9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -578,11 +578,11 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>4.963333333333331</v>
+        <v>5.763333333333328</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>+5,0</t>
+          <t>+5,8</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -621,16 +621,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>31.6</v>
+        <v>32.6</v>
       </c>
       <c r="K3" t="n">
         <v>39.560833</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31,6</t>
+          <t>32,6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -649,11 +649,11 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>3.66</v>
+        <v>4.66</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>+3,7</t>
+          <t>+4,7</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -692,16 +692,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="K4" t="n">
         <v>39.854722</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>28,7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>3.129999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>+3,1</t>
+          <t>+2,4</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="K5" t="n">
         <v>38.876389</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2.666666666666668</v>
+        <v>1.866666666666671</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>+2,7</t>
+          <t>+1,9</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
@@ -834,16 +834,16 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>28.8</v>
+        <v>30.6</v>
       </c>
       <c r="K6" t="n">
         <v>28.951944</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28,8</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -862,16 +862,16 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0.2333333333333307</v>
+        <v>2.033333333333331</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>+0,2</t>
+          <t>+2,0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
@@ -905,16 +905,16 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="K7" t="n">
         <v>28.633056</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>25,8</t>
+          <t>26,5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -933,11 +933,11 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>-0.7866666666666688</v>
+        <v>-0.08666666666666956</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -976,16 +976,16 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="K8" t="n">
         <v>28.444722</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27,0</t>
+          <t>26,9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>-0.4833333333333307</v>
+        <v>-0.5833333333333321</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1047,16 +1047,16 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>27.3</v>
+        <v>28.9</v>
       </c>
       <c r="K9" t="n">
         <v>28.031667</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0.81111111111111</v>
+        <v>2.411111111111108</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>+0,8</t>
+          <t>+2,4</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
@@ -1118,16 +1118,16 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="K10" t="n">
         <v>28.046944</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1.368965517241381</v>
+        <v>2.26896551724138</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>+1,4</t>
+          <t>+2,3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
@@ -1189,16 +1189,16 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="K11" t="n">
         <v>28.308333</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>20,4</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1217,11 +1217,11 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1.543333333333329</v>
+        <v>1.743333333333329</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>+1,5</t>
+          <t>+1,7</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1260,16 +1260,16 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22.4</v>
+        <v>25.9</v>
       </c>
       <c r="K12" t="n">
         <v>28.4775</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>-2.450000000000003</v>
+        <v>1.049999999999997</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>+1,0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
@@ -1331,16 +1331,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>27.3</v>
+        <v>28.8</v>
       </c>
       <c r="K13" t="n">
         <v>28.463333</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1359,11 +1359,11 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>-0.7899999999999991</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>+0,7</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1402,16 +1402,16 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>27.2</v>
+        <v>28.5</v>
       </c>
       <c r="K14" t="n">
         <v>27.917778</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>28,5</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>27,2</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>27,2</t>
-        </is>
-      </c>
       <c r="O14" t="n">
-        <v>-0.03999999999999915</v>
+        <v>1.260000000000002</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>+1,3</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1473,16 +1473,16 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15" t="n">
         <v>28.075</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1501,11 +1501,11 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>-1.005882352941178</v>
+        <v>0.9941176470588218</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>+1,0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1615,16 +1615,16 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="K17" t="n">
         <v>41.145</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>4.170000000000002</v>
+        <v>2.670000000000002</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>+4,2</t>
+          <t>+2,7</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1686,16 +1686,16 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="K18" t="n">
         <v>41.418333</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27,4</t>
+          <t>27,2</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,11 +1714,11 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2.803333333333327</v>
+        <v>2.603333333333328</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>+2,8</t>
+          <t>+2,6</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1757,16 +1757,16 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="K19" t="n">
         <v>43.356944</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>-0.5100000000000016</v>
+        <v>-2.510000000000002</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
@@ -1826,16 +1826,16 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>23.3</v>
+        <v>21.5</v>
       </c>
       <c r="K20" t="n">
         <v>43.356944</v>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1891,16 +1891,16 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>19.8</v>
+        <v>17.6</v>
       </c>
       <c r="K21" t="n">
         <v>43.306389</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1919,16 +1919,16 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>-1.313333333333329</v>
+        <v>-3.513333333333328</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
@@ -1962,16 +1962,16 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>23.5</v>
+        <v>19.2</v>
       </c>
       <c r="K22" t="n">
         <v>43.559722</v>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>1.940000000000001</v>
+        <v>-2.359999999999999</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>+1,9</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>18.7</v>
       </c>
       <c r="K23" t="n">
         <v>43.566944</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>0.8629629629629605</v>
+        <v>-2.43703703703704</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>+0,9</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
@@ -2102,16 +2102,16 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>21</v>
+        <v>16.7</v>
       </c>
       <c r="K24" t="n">
         <v>43.353333</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>21,0</t>
+          <t>16,7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2167,16 +2167,16 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="K25" t="n">
         <v>43.476389</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>21,4</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2195,11 +2195,11 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>-2.300000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2238,16 +2238,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>22.4</v>
+        <v>20.9</v>
       </c>
       <c r="K26" t="n">
         <v>43.365833</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>20,9</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2266,11 +2266,11 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>0.443333333333328</v>
+        <v>-1.056666666666672</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>+0,4</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2309,16 +2309,16 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>21.9</v>
+        <v>20.6</v>
       </c>
       <c r="K27" t="n">
         <v>43.306944</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2337,11 +2337,11 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>-0.6533333333333324</v>
+        <v>-1.95333333333333</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2380,12 +2380,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2451,16 +2451,16 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="K29" t="n">
         <v>42.438333</v>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>23,0</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-2.956</v>
+        <v>-0.6559999999999988</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
@@ -2522,16 +2522,16 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="K30" t="n">
         <v>42.238611</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>-2.63703703703704</v>
+        <v>-1.13703703703704</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
@@ -2593,16 +2593,16 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="K31" t="n">
         <v>43.111111</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>21,0</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2621,11 +2621,11 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>-1.969230769230769</v>
+        <v>-1.26923076923077</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2637,21 +2637,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Soria</t>
+          <t>Burgos Aeropuerto</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soria</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1081</v>
+        <v>891</v>
       </c>
       <c r="E32" t="n">
         <v>1981</v>
@@ -2660,114 +2660,114 @@
         <v>2010</v>
       </c>
       <c r="G32" t="n">
-        <v>23.61</v>
+        <v>23.29666666666667</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>21.9</v>
+        <v>18.2</v>
       </c>
       <c r="K32" t="n">
-        <v>41.775</v>
+        <v>42.356944</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.483056</v>
+        <v>-3.620278</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>23,3</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>-1.710000000000001</v>
+        <v>-5.096666666666671</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Burgos Aeropuerto</t>
+          <t>Ávila</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Avila</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>891</v>
+        <v>1130</v>
       </c>
       <c r="E33" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F33" t="n">
         <v>2010</v>
       </c>
       <c r="G33" t="n">
-        <v>23.29666666666667</v>
+        <v>23.375</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>21.4</v>
+        <v>24.7</v>
       </c>
       <c r="K33" t="n">
-        <v>42.356944</v>
+        <v>40.659167</v>
       </c>
       <c r="L33" t="n">
-        <v>-3.620278</v>
+        <v>-4.679722</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>21,4</t>
+          <t>24,7</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>-1.896666666666672</v>
+        <v>1.324999999999999</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>+1,3</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2779,234 +2779,234 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>734</v>
+        <v>1008</v>
       </c>
       <c r="E34" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="F34" t="n">
         <v>2010</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57333333333333</v>
+        <v>23.99090909090909</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="K34" t="n">
-        <v>41.640833</v>
+        <v>40.945278</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.754167</v>
+        <v>-4.126389</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>25,5</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>25,6</t>
+          <t>24,0</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>-2.073333333333331</v>
+        <v>1.509090909090911</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>+1,5</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ávila</t>
+          <t>Valladolid Aeropuerto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Avila</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1130</v>
+        <v>846</v>
       </c>
       <c r="E35" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F35" t="n">
         <v>2010</v>
       </c>
       <c r="G35" t="n">
-        <v>23.375</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>19</v>
+        <v>24.6</v>
       </c>
       <c r="K35" t="n">
-        <v>40.659167</v>
+        <v>41.711944</v>
       </c>
       <c r="L35" t="n">
-        <v>-4.679722</v>
+        <v>-4.855556</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>24,6</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>24,4</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-4.375</v>
+        <v>0.2111111111111121</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>+0,2</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Salamanca Aeropuerto</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1008</v>
+        <v>790</v>
       </c>
       <c r="E36" t="n">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="F36" t="n">
         <v>2010</v>
       </c>
       <c r="G36" t="n">
-        <v>23.99090909090909</v>
+        <v>25.13666666666667</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>19.9</v>
+        <v>25.3</v>
       </c>
       <c r="K36" t="n">
-        <v>40.945278</v>
+        <v>40.959444</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.126389</v>
+        <v>-5.498333</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>25,3</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>25,1</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>-4.09090909090909</v>
+        <v>0.1633333333333304</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>+0,2</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valladolid Aeropuerto</t>
+          <t>Madrid Aeropuerto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>846</v>
+        <v>609</v>
       </c>
       <c r="E37" t="n">
         <v>1981</v>
@@ -3015,69 +3015,69 @@
         <v>2010</v>
       </c>
       <c r="G37" t="n">
-        <v>24.38888888888889</v>
+        <v>27.87666666666667</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>21.1</v>
+        <v>29.5</v>
       </c>
       <c r="K37" t="n">
-        <v>41.711944</v>
+        <v>40.466667</v>
       </c>
       <c r="L37" t="n">
-        <v>-4.855556</v>
+        <v>-3.555556</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>21,1</t>
+          <t>29,5</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>-3.288888888888888</v>
+        <v>1.623333333333331</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>+1,6</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Salamanca Aeropuerto</t>
+          <t>Torrejón De Ardoz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>790</v>
+        <v>607</v>
       </c>
       <c r="E38" t="n">
         <v>1981</v>
@@ -3086,60 +3086,60 @@
         <v>2010</v>
       </c>
       <c r="G38" t="n">
-        <v>25.13666666666667</v>
+        <v>27.75333333333333</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>21.7</v>
+        <v>28.9</v>
       </c>
       <c r="K38" t="n">
-        <v>40.959444</v>
+        <v>40.488611</v>
       </c>
       <c r="L38" t="n">
-        <v>-5.498333</v>
+        <v>-3.443611</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>21,7</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>-3.436666666666671</v>
+        <v>1.146666666666668</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>+1,1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>3191E</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Madrid Aeropuerto</t>
+          <t>Colmenar Viejo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3148,69 +3148,69 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>609</v>
+        <v>1004</v>
       </c>
       <c r="E39" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F39" t="n">
         <v>2010</v>
       </c>
       <c r="G39" t="n">
-        <v>27.87666666666667</v>
+        <v>24.36785714285714</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>25</v>
+        <v>26.6</v>
       </c>
       <c r="K39" t="n">
-        <v>40.466667</v>
+        <v>40.696111</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.555556</v>
+        <v>-3.765</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>25,0</t>
+          <t>26,6</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>27,9</t>
+          <t>24,4</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>-2.876666666666669</v>
+        <v>2.232142857142861</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>+2,2</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Torrejón De Ardoz</t>
+          <t>Cuatro Vientos, Madrid</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>607</v>
+        <v>690</v>
       </c>
       <c r="E40" t="n">
         <v>1981</v>
@@ -3228,60 +3228,60 @@
         <v>2010</v>
       </c>
       <c r="G40" t="n">
-        <v>27.75333333333333</v>
+        <v>27.29666666666667</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>24.9</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>40.488611</v>
+        <v>40.375556</v>
       </c>
       <c r="L40" t="n">
-        <v>-3.443611</v>
+        <v>-3.786111</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>-2.853333333333332</v>
+        <v>1.70333333333333</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>+1,7</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3191E</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Colmenar Viejo</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3290,194 +3290,194 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1004</v>
+        <v>620</v>
       </c>
       <c r="E41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F41" t="n">
         <v>2010</v>
       </c>
       <c r="G41" t="n">
-        <v>24.36785714285714</v>
+        <v>27.49</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>21.2</v>
+        <v>29</v>
       </c>
       <c r="K41" t="n">
-        <v>40.696111</v>
+        <v>40.299444</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.765</v>
+        <v>-3.722222</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>27,5</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>-3.167857142857141</v>
+        <v>1.510000000000002</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>+1,5</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>3260B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Retiro, Madrid</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>667</v>
+        <v>513</v>
       </c>
       <c r="E42" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F42" t="n">
         <v>2010</v>
       </c>
       <c r="G42" t="n">
-        <v>26.41</v>
+        <v>29.03793103448276</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>23.8</v>
+        <v>31.2</v>
       </c>
       <c r="K42" t="n">
-        <v>40.411944</v>
+        <v>39.884722</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.678056</v>
+        <v>-4.045278</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23,8</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>-2.609999999999999</v>
+        <v>2.162068965517239</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>+2,2</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3469A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cuatro Vientos, Madrid</t>
+          <t>Cáceres</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Caceres</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>690</v>
+        <v>394</v>
       </c>
       <c r="E43" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F43" t="n">
         <v>2010</v>
       </c>
       <c r="G43" t="n">
-        <v>27.29666666666667</v>
+        <v>28.79642857142857</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>24.5</v>
+        <v>26.7</v>
       </c>
       <c r="K43" t="n">
-        <v>40.375556</v>
+        <v>39.471389</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.786111</v>
+        <v>-6.338889</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>26,7</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>-2.79666666666667</v>
+        <v>-2.096428571428572</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3489,208 +3489,208 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>4116I</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Almagro / Famet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Ciudad Real</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E44" t="n">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="F44" t="n">
         <v>2010</v>
       </c>
       <c r="G44" t="n">
-        <v>27.49</v>
+        <v>28.775</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>25.2</v>
+        <v>31.9</v>
       </c>
       <c r="K44" t="n">
-        <v>40.299444</v>
+        <v>38.950833</v>
       </c>
       <c r="L44" t="n">
-        <v>-3.722222</v>
+        <v>-3.741944</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>31,9</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>27,5</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>-2.289999999999999</v>
+        <v>3.125</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>+3,1</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3260B</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Ciudad Real</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Ciudad Real</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>513</v>
+        <v>626</v>
       </c>
       <c r="E45" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F45" t="n">
         <v>2010</v>
       </c>
       <c r="G45" t="n">
-        <v>29.03793103448276</v>
+        <v>28.43</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>27.1</v>
+        <v>31.5</v>
       </c>
       <c r="K45" t="n">
-        <v>39.884722</v>
+        <v>38.989167</v>
       </c>
       <c r="L45" t="n">
-        <v>-4.045278</v>
+        <v>-3.920278</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27,1</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>29,0</t>
+          <t>28,4</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>-1.937931034482759</v>
+        <v>3.07</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>+3,1</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3469A</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cáceres</t>
+          <t>Badajoz Aeropuerto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Caceres</t>
+          <t>Badajoz</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>394</v>
+        <v>186</v>
       </c>
       <c r="E46" t="n">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="F46" t="n">
         <v>2010</v>
       </c>
       <c r="G46" t="n">
-        <v>28.79642857142857</v>
+        <v>30.39166666666667</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>25.2</v>
+        <v>27.8</v>
       </c>
       <c r="K46" t="n">
-        <v>39.471389</v>
+        <v>38.883333</v>
       </c>
       <c r="L46" t="n">
-        <v>-6.338889</v>
+        <v>-6.813889</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>28,8</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>-3.596428571428572</v>
+        <v>-2.591666666666669</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -3702,376 +3702,376 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4116I</t>
+          <t>4642E</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Almagro / Famet</t>
+          <t>Ronda Este, Huelva</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ciudad Real</t>
+          <t>Huelva</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>626</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="F47" t="n">
         <v>2010</v>
       </c>
       <c r="G47" t="n">
-        <v>28.775</v>
+        <v>29.41851851851852</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>26.5</v>
+        <v>32.7</v>
       </c>
       <c r="K47" t="n">
-        <v>38.950833</v>
+        <v>37.278333</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.741944</v>
+        <v>-6.911667</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>26,5</t>
+          <t>32,7</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>28,8</t>
+          <t>29,4</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>-2.274999999999999</v>
+        <v>3.281481481481482</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>+3,3</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>5000C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Badajoz Aeropuerto</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Badajoz</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="E48" t="n">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="F48" t="n">
         <v>2010</v>
       </c>
       <c r="G48" t="n">
-        <v>30.39166666666667</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>27.5</v>
+        <v>29.6</v>
       </c>
       <c r="K48" t="n">
-        <v>38.883333</v>
+        <v>35.888611</v>
       </c>
       <c r="L48" t="n">
-        <v>-6.813889</v>
+        <v>-5.346944</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>27,5</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>-2.891666666666669</v>
+        <v>3.616666666666671</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>+3,6</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4642E</t>
+          <t>5270B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ronda Este, Huelva</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Huelva</t>
+          <t>Jaen</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>580</v>
       </c>
       <c r="E49" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F49" t="n">
         <v>2010</v>
       </c>
       <c r="G49" t="n">
-        <v>29.41851851851852</v>
+        <v>27.736</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>29.5</v>
+        <v>32.1</v>
       </c>
       <c r="K49" t="n">
-        <v>37.278333</v>
+        <v>37.7775</v>
       </c>
       <c r="L49" t="n">
-        <v>-6.911667</v>
+        <v>-3.809167</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29,5</t>
+          <t>32,1</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>0.08148148148147882</v>
+        <v>4.364000000000001</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>+0,1</t>
+          <t>+4,4</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5000C</t>
+          <t>5514</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Granada Base Aérea</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>87</v>
+        <v>687</v>
       </c>
       <c r="E50" t="n">
-        <v>2003</v>
+        <v>1981</v>
       </c>
       <c r="F50" t="n">
         <v>2010</v>
       </c>
       <c r="G50" t="n">
-        <v>25.98333333333333</v>
+        <v>28.69666666666667</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>26</v>
+        <v>31.5</v>
       </c>
       <c r="K50" t="n">
-        <v>35.888611</v>
+        <v>37.137222</v>
       </c>
       <c r="L50" t="n">
-        <v>-5.346944</v>
+        <v>-3.631389</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>28,7</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>0.01666666666666927</v>
+        <v>2.803333333333331</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>+0,0</t>
+          <t>+2,8</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5270B</t>
+          <t>5530E</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jaén</t>
+          <t>Granada Aeropuerto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="E51" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F51" t="n">
         <v>2010</v>
       </c>
       <c r="G51" t="n">
-        <v>27.736</v>
+        <v>29.35333333333334</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>25.9</v>
+        <v>34.3</v>
       </c>
       <c r="K51" t="n">
-        <v>37.7775</v>
+        <v>37.190278</v>
       </c>
       <c r="L51" t="n">
-        <v>-3.809167</v>
+        <v>-3.789722</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>25,9</t>
+          <t>34,3</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>29,4</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>-1.836000000000002</v>
+        <v>4.946666666666658</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>+4,9</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>5783</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Granada Base Aérea</t>
+          <t>Sevilla Aeropuerto</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>687</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
         <v>1981</v>
@@ -4080,69 +4080,69 @@
         <v>2010</v>
       </c>
       <c r="G52" t="n">
-        <v>28.69666666666667</v>
+        <v>31.70666666666667</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>26.1</v>
+        <v>33.5</v>
       </c>
       <c r="K52" t="n">
-        <v>37.137222</v>
+        <v>37.416667</v>
       </c>
       <c r="L52" t="n">
-        <v>-3.631389</v>
+        <v>-5.879167</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26,1</t>
+          <t>33,5</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>28,7</t>
+          <t>31,7</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>-2.596666666666668</v>
+        <v>1.793333333333329</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>+1,8</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5530E</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Granada Aeropuerto</t>
+          <t>Morón De La Frontera</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>560</v>
+        <v>87</v>
       </c>
       <c r="E53" t="n">
         <v>1981</v>
@@ -4151,114 +4151,114 @@
         <v>2010</v>
       </c>
       <c r="G53" t="n">
-        <v>29.35333333333334</v>
+        <v>30.99</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>27.2</v>
+        <v>32.8</v>
       </c>
       <c r="K53" t="n">
-        <v>37.190278</v>
+        <v>37.164444</v>
       </c>
       <c r="L53" t="n">
-        <v>-3.789722</v>
+        <v>-5.611389</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27,2</t>
+          <t>32,8</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>31,0</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>-2.15333333333334</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>+1,8</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>5910</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sevilla Aeropuerto</t>
+          <t>Base Naval, Rota</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E54" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="F54" t="n">
         <v>2010</v>
       </c>
       <c r="G54" t="n">
-        <v>31.70666666666667</v>
+        <v>27.71739130434782</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30.9</v>
+        <v>28.5</v>
       </c>
       <c r="K54" t="n">
-        <v>37.416667</v>
+        <v>36.638889</v>
       </c>
       <c r="L54" t="n">
-        <v>-5.879167</v>
+        <v>-6.3325</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30,9</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>31,7</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>-0.806666666666672</v>
+        <v>0.7826086956521792</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>+0,8</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -4270,21 +4270,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Morón De La Frontera</t>
+          <t>Jerez De La Frontera Aeropuerto</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E55" t="n">
         <v>1981</v>
@@ -4293,43 +4293,43 @@
         <v>2010</v>
       </c>
       <c r="G55" t="n">
-        <v>30.99</v>
+        <v>30.38</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>29.2</v>
+        <v>31.9</v>
       </c>
       <c r="K55" t="n">
-        <v>37.164444</v>
+        <v>36.750556</v>
       </c>
       <c r="L55" t="n">
-        <v>-5.611389</v>
+        <v>-6.055833</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>31,9</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>31,0</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>-1.789999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>+1,5</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4341,12 +4341,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Base Naval, Rota</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4355,78 +4355,78 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="F56" t="n">
         <v>2010</v>
       </c>
       <c r="G56" t="n">
-        <v>27.71739130434782</v>
+        <v>26.26206896551724</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="K56" t="n">
-        <v>36.638889</v>
+        <v>36.499722</v>
       </c>
       <c r="L56" t="n">
-        <v>-6.3325</v>
+        <v>-6.257778</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>26,3</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>-2.017391304347822</v>
+        <v>-0.862068965517242</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>6000A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jerez De La Frontera Aeropuerto</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E57" t="n">
         <v>1981</v>
@@ -4435,69 +4435,69 @@
         <v>2010</v>
       </c>
       <c r="G57" t="n">
-        <v>30.38</v>
+        <v>27.14333333333333</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>29.9</v>
+        <v>32.1</v>
       </c>
       <c r="K57" t="n">
-        <v>36.750556</v>
+        <v>35.276389</v>
       </c>
       <c r="L57" t="n">
-        <v>-6.055833</v>
+        <v>-2.956389</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>29,9</t>
+          <t>32,1</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>27,1</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>-0.4800000000000004</v>
+        <v>4.956666666666671</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>+5,0</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6155A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Málaga Aeropuerto</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
         <v>1981</v>
@@ -4506,69 +4506,69 @@
         <v>2010</v>
       </c>
       <c r="G58" t="n">
-        <v>26.26206896551724</v>
+        <v>28.21</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>23.9</v>
+        <v>31.2</v>
       </c>
       <c r="K58" t="n">
-        <v>36.499722</v>
+        <v>36.666111</v>
       </c>
       <c r="L58" t="n">
-        <v>-6.257778</v>
+        <v>-4.482222</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>26,3</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>-2.362068965517242</v>
+        <v>2.989999999999998</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>+3,0</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6000A</t>
+          <t>6325O</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Almería Aeropuerto</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E59" t="n">
         <v>1981</v>
@@ -4577,43 +4577,43 @@
         <v>2010</v>
       </c>
       <c r="G59" t="n">
-        <v>27.14333333333333</v>
+        <v>28.39333333333333</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>28.1</v>
+        <v>29.1</v>
       </c>
       <c r="K59" t="n">
-        <v>35.276389</v>
+        <v>36.846389</v>
       </c>
       <c r="L59" t="n">
-        <v>-2.956389</v>
+        <v>-2.356944</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>28,1</t>
+          <t>29,1</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>27,1</t>
+          <t>28,4</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>0.9566666666666706</v>
+        <v>0.7066666666666706</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>+1,0</t>
+          <t>+0,7</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4625,92 +4625,92 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6155A</t>
+          <t>7178I</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Málaga Aeropuerto</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E60" t="n">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="F60" t="n">
         <v>2010</v>
       </c>
       <c r="G60" t="n">
-        <v>28.21</v>
+        <v>30.41111111111111</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>31.1</v>
+        <v>37.6</v>
       </c>
       <c r="K60" t="n">
-        <v>36.666111</v>
+        <v>38.001944</v>
       </c>
       <c r="L60" t="n">
-        <v>-4.482222</v>
+        <v>-1.170833</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>31,1</t>
+          <t>37,6</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>2.890000000000001</v>
+        <v>7.18888888888889</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>+2,9</t>
+          <t>+7,2</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Muy alta</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6325O</t>
+          <t>7228</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Almería Aeropuerto</t>
+          <t>Base Aérea, Alcantarilla</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E61" t="n">
         <v>1981</v>
@@ -4719,140 +4719,140 @@
         <v>2010</v>
       </c>
       <c r="G61" t="n">
-        <v>28.39333333333333</v>
+        <v>30.44666666666667</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>28</v>
+        <v>38.5</v>
       </c>
       <c r="K61" t="n">
-        <v>36.846389</v>
+        <v>37.957778</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.356944</v>
+        <v>-1.228611</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>28,0</t>
+          <t>38,5</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>28,4</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>-0.3933333333333309</v>
+        <v>8.053333333333331</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>+8,1</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Muy alta</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7178I</t>
+          <t>8019</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alicante-Elche Aeropuerto</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E62" t="n">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="F62" t="n">
         <v>2010</v>
       </c>
       <c r="G62" t="n">
-        <v>30.41111111111111</v>
+        <v>28.50344827586207</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>33.3</v>
+        <v>34.9</v>
       </c>
       <c r="K62" t="n">
-        <v>38.001944</v>
+        <v>38.282778</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.170833</v>
+        <v>-0.570833</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>34,9</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>2.888888888888886</v>
+        <v>6.396551724137929</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>+2,9</t>
+          <t>+6,4</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Muy alta</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7228</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Base Aérea, Alcantarilla</t>
+          <t>Alacant/Alicante</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E63" t="n">
         <v>1981</v>
@@ -4861,43 +4861,43 @@
         <v>2010</v>
       </c>
       <c r="G63" t="n">
-        <v>30.44666666666667</v>
+        <v>28.53</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="K63" t="n">
-        <v>37.957778</v>
+        <v>38.3725</v>
       </c>
       <c r="L63" t="n">
-        <v>-1.228611</v>
+        <v>-0.494167</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>33,7</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>2.853333333333328</v>
+        <v>5.170000000000002</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>+2,9</t>
+          <t>+5,2</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -4909,21 +4909,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8019</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Alicante-Elche Aeropuerto</t>
+          <t>Cuenca</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Alicante</t>
+          <t>Cuenca</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>43</v>
+        <v>949</v>
       </c>
       <c r="E64" t="n">
         <v>1981</v>
@@ -4932,43 +4932,43 @@
         <v>2010</v>
       </c>
       <c r="G64" t="n">
-        <v>28.50344827586207</v>
+        <v>25.63666666666667</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>32.4</v>
+        <v>29.1</v>
       </c>
       <c r="K64" t="n">
-        <v>38.282778</v>
+        <v>40.067222</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.570833</v>
+        <v>-2.131944</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>32,4</t>
+          <t>29,1</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>28,5</t>
+          <t>25,6</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>3.896551724137929</v>
+        <v>3.463333333333331</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>+3,9</t>
+          <t>+3,5</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -4980,21 +4980,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8025</t>
+          <t>8175</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alacant/Alicante</t>
+          <t>Albacete Base Aérea</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Alicante</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>81</v>
+        <v>702</v>
       </c>
       <c r="E65" t="n">
         <v>1981</v>
@@ -5003,43 +5003,43 @@
         <v>2010</v>
       </c>
       <c r="G65" t="n">
-        <v>28.53</v>
+        <v>27</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>34</v>
+        <v>32.2</v>
       </c>
       <c r="K65" t="n">
-        <v>38.3725</v>
+        <v>38.954167</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.494167</v>
+        <v>-1.856389</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>34,0</t>
+          <t>32,2</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>28,5</t>
+          <t>27,0</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>5.469999999999999</v>
+        <v>5.200000000000003</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>+5,5</t>
+          <t>+5,2</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5051,305 +5051,305 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>8178D</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cuenca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cuenca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>949</v>
+        <v>674</v>
       </c>
       <c r="E66" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F66" t="n">
         <v>2010</v>
       </c>
       <c r="G66" t="n">
-        <v>25.63666666666667</v>
+        <v>27.91071428571428</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>24.4</v>
+        <v>31.5</v>
       </c>
       <c r="K66" t="n">
-        <v>40.067222</v>
+        <v>39.005556</v>
       </c>
       <c r="L66" t="n">
-        <v>-2.131944</v>
+        <v>-1.862222</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>25,6</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>-1.236666666666672</v>
+        <v>3.589285714285719</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>+3,6</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8175</t>
+          <t>8368U</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Albacete Base Aérea</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>702</v>
+        <v>902</v>
       </c>
       <c r="E67" t="n">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="F67" t="n">
         <v>2010</v>
       </c>
       <c r="G67" t="n">
-        <v>27</v>
+        <v>25.252</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>25.8</v>
+        <v>30.6</v>
       </c>
       <c r="K67" t="n">
-        <v>38.954167</v>
+        <v>40.350833</v>
       </c>
       <c r="L67" t="n">
-        <v>-1.856389</v>
+        <v>-1.124167</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>25,8</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>27,0</t>
+          <t>25,3</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>-1.199999999999999</v>
+        <v>5.348000000000003</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>+5,3</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8178D</t>
+          <t>8414A</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Valencia Aeropuerto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>674</v>
+        <v>56</v>
       </c>
       <c r="E68" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F68" t="n">
         <v>2010</v>
       </c>
       <c r="G68" t="n">
-        <v>27.91071428571428</v>
+        <v>28</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>25.2</v>
+        <v>31.6</v>
       </c>
       <c r="K68" t="n">
-        <v>39.005556</v>
+        <v>39.485</v>
       </c>
       <c r="L68" t="n">
-        <v>-1.862222</v>
+        <v>-0.474722</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>31,6</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>27,9</t>
+          <t>28,0</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>-2.710714285714282</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>+3,6</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8368U</t>
+          <t>8500A</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Castelló - Almassora</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>902</v>
+        <v>43</v>
       </c>
       <c r="E69" t="n">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="F69" t="n">
         <v>2010</v>
       </c>
       <c r="G69" t="n">
-        <v>25.252</v>
+        <v>27.57333333333333</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>23.8</v>
+        <v>30.3</v>
       </c>
       <c r="K69" t="n">
-        <v>40.350833</v>
+        <v>39.957222</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.124167</v>
+        <v>-0.07194399999999999</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>23,8</t>
+          <t>30,3</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>25,3</t>
+          <t>27,6</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>-1.451999999999998</v>
+        <v>2.72666666666667</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>+2,7</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8414A</t>
+          <t>9091O</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Valencia Aeropuerto</t>
+          <t>Foronda-Txokiza</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Araba/Alava</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>56</v>
+        <v>513</v>
       </c>
       <c r="E70" t="n">
         <v>1981</v>
@@ -5358,140 +5358,132 @@
         <v>2010</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>23.11333333333333</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>33.3</v>
+        <v>19.3</v>
       </c>
       <c r="K70" t="n">
-        <v>39.485</v>
+        <v>42.881944</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.474722</v>
+        <v>-2.735</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>28,0</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>5.299999999999997</v>
+        <v>-3.813333333333329</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>+5,3</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8500A</t>
+          <t>9091R</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Castelló - Almassora</t>
+          <t>Vitoria-Gasteiz Aeropuerto</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Araba/Alava</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>43</v>
+        <v>513</v>
       </c>
       <c r="E71" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="F71" t="n">
         <v>2010</v>
       </c>
-      <c r="G71" t="n">
-        <v>27.57333333333333</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>30.4</v>
+        <v>19.6</v>
       </c>
       <c r="K71" t="n">
-        <v>39.957222</v>
+        <v>42.871944</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.07194399999999999</v>
+        <v>-2.732778</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>27,6</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>2.826666666666668</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>+2,8</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9091O</t>
+          <t>9170</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Foronda-Txokiza</t>
+          <t>Aeropuerto, Logroño</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Araba/Alava</t>
+          <t>La Rioja</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="E72" t="n">
         <v>1981</v>
@@ -5500,203 +5492,211 @@
         <v>2010</v>
       </c>
       <c r="G72" t="n">
-        <v>23.11333333333333</v>
+        <v>25.78</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="K72" t="n">
-        <v>42.881944</v>
+        <v>42.452222</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.735</v>
+        <v>-2.331111</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>23,1</t>
+          <t>25,8</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>-1.11333333333333</v>
+        <v>-2.380000000000003</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Baja</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9091R</t>
+          <t>9263D</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vitoria-Gasteiz Aeropuerto</t>
+          <t>Aeropuerto, Pamplona</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Araba/Alava</t>
+          <t>Navarra</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="E73" t="n">
-        <v>2000</v>
+        <v>1981</v>
       </c>
       <c r="F73" t="n">
         <v>2010</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>24.49666666666667</v>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>22.1</v>
+        <v>23.6</v>
       </c>
       <c r="K73" t="n">
-        <v>42.871944</v>
+        <v>42.776944</v>
       </c>
       <c r="L73" t="n">
-        <v>-2.732778</v>
+        <v>-1.65</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>24,5</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>-0.8966666666666683</v>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Similar</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9170</t>
+          <t>9381I</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aeropuerto, Logroño</t>
+          <t>Calamocha</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>La Rioja</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>353</v>
+        <v>884</v>
       </c>
       <c r="E74" t="n">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="F74" t="n">
         <v>2010</v>
       </c>
       <c r="G74" t="n">
-        <v>25.78</v>
+        <v>23.90666666666667</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
       <c r="K74" t="n">
-        <v>42.452222</v>
+        <v>40.926111</v>
       </c>
       <c r="L74" t="n">
-        <v>-2.331111</v>
+        <v>-1.293333</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>25,8</t>
+          <t>23,9</t>
         </is>
       </c>
       <c r="O74" t="n">
-        <v>-1.280000000000001</v>
+        <v>4.59333333333333</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>+4,6</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9263D</t>
+          <t>9390</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aeropuerto, Pamplona</t>
+          <t>Daroca</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Navarra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>459</v>
+        <v>774</v>
       </c>
       <c r="E75" t="n">
         <v>1981</v>
@@ -5705,43 +5705,43 @@
         <v>2010</v>
       </c>
       <c r="G75" t="n">
-        <v>24.49666666666667</v>
+        <v>25.67666666666667</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>23.3</v>
+        <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>42.776944</v>
+        <v>41.114444</v>
       </c>
       <c r="L75" t="n">
-        <v>-1.65</v>
+        <v>-1.41</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>27,0</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>25,7</t>
         </is>
       </c>
       <c r="O75" t="n">
-        <v>-1.196666666666669</v>
+        <v>1.323333333333331</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>+1,3</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -5753,66 +5753,66 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9381I</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Calamocha</t>
+          <t>Aeropuerto, Zaragoza</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>884</v>
+        <v>249</v>
       </c>
       <c r="E76" t="n">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="F76" t="n">
         <v>2010</v>
       </c>
       <c r="G76" t="n">
-        <v>23.90666666666667</v>
+        <v>27.12333333333333</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>22.4</v>
+        <v>27.9</v>
       </c>
       <c r="K76" t="n">
-        <v>40.926111</v>
+        <v>41.660556</v>
       </c>
       <c r="L76" t="n">
-        <v>-1.293333</v>
+        <v>-1.004167</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>27,1</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>-1.506666666666671</v>
+        <v>0.7766666666666673</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>+0,8</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -5824,92 +5824,92 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9390</t>
+          <t>9771C</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Daroca</t>
+          <t>Lleida</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Lleida</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>774</v>
+        <v>186</v>
       </c>
       <c r="E77" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F77" t="n">
         <v>2010</v>
       </c>
       <c r="G77" t="n">
-        <v>25.67666666666667</v>
+        <v>27.78214285714285</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>23.2</v>
+        <v>31.5</v>
       </c>
       <c r="K77" t="n">
-        <v>41.114444</v>
+        <v>41.626111</v>
       </c>
       <c r="L77" t="n">
-        <v>-1.41</v>
+        <v>0.598056</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23,2</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="O77" t="n">
-        <v>-2.47666666666667</v>
+        <v>3.717857142857149</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>+3,7</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>9898</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aeropuerto, Zaragoza</t>
+          <t>Aeropuerto, Huesca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>249</v>
+        <v>546</v>
       </c>
       <c r="E78" t="n">
         <v>1981</v>
@@ -5918,315 +5918,146 @@
         <v>2010</v>
       </c>
       <c r="G78" t="n">
-        <v>27.12333333333333</v>
+        <v>25.92068965517242</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>25.6</v>
+        <v>28.4</v>
       </c>
       <c r="K78" t="n">
-        <v>41.660556</v>
+        <v>42.084444</v>
       </c>
       <c r="L78" t="n">
-        <v>-1.004167</v>
+        <v>-0.325556</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25,6</t>
+          <t>28,4</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>27,1</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>-1.52333333333333</v>
+        <v>2.479310344827578</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>+2,5</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9771C</t>
+          <t>9981A</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lleida</t>
+          <t>Estación De Tortosa (Roquetes)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lleida</t>
+          <t>Tarragona</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F79" t="n">
         <v>2010</v>
       </c>
       <c r="G79" t="n">
-        <v>27.78214285714285</v>
+        <v>28.79666666666667</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>26.6</v>
+        <v>33.8</v>
       </c>
       <c r="K79" t="n">
-        <v>41.626111</v>
+        <v>40.820278</v>
       </c>
       <c r="L79" t="n">
-        <v>0.598056</v>
+        <v>0.493333</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>26,6</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>-1.18214285714285</v>
+        <v>5.003333333333327</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>+5,0</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Alta</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>9898</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Aeropuerto, Huesca</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>546</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G80" t="n">
-        <v>25.92068965517242</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>1 de septiembre</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>24.1</v>
-      </c>
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>42.084444</v>
+        <v>40.820278</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.325556</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>24,1</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>25,9</t>
-        </is>
-      </c>
-      <c r="O80" t="n">
-        <v>-1.820689655172419</v>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
+        <v>0.493333</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Similar</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>9981A</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Estación De Tortosa (Roquetes)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Tarragona</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>50</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G81" t="n">
-        <v>28.79666666666667</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1 de septiembre</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>40.820278</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.493333</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>31,4</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>28,8</t>
-        </is>
-      </c>
-      <c r="O81" t="n">
-        <v>2.603333333333328</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>+2,6</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>40.820278</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.493333</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
           <t>Muy baja</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>40.820278</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.493333</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Muy alta</t>
         </is>
       </c>
     </row>
